--- a/tut05/output/0501EE32.xlsx
+++ b/tut05/output/0501EE32.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.816326530612245</v>
+        <v>7.82</v>
       </c>
       <c r="C6" t="n">
-        <v>8.363636363636363</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>7.826086956521739</v>
+        <v>7.83</v>
       </c>
       <c r="E6" t="n">
-        <v>8.847826086956522</v>
+        <v>8.85</v>
       </c>
       <c r="F6" t="n">
-        <v>9.538461538461538</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9.44186046511628</v>
+        <v>9.44</v>
       </c>
       <c r="I6" t="n">
-        <v>7.473684210526316</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.816326530612245</v>
+        <v>7.82</v>
       </c>
       <c r="C8" t="n">
-        <v>8.075268817204302</v>
+        <v>8.08</v>
       </c>
       <c r="D8" t="n">
-        <v>7.992805755395683</v>
+        <v>7.99</v>
       </c>
       <c r="E8" t="n">
-        <v>8.205405405405406</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.4375</v>
+        <v>8.44</v>
       </c>
       <c r="G8" t="n">
-        <v>8.401515151515152</v>
+        <v>8.4</v>
       </c>
       <c r="H8" t="n">
-        <v>8.547231270358306</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.428985507246377</v>
+        <v>8.43</v>
       </c>
     </row>
   </sheetData>
